--- a/resources/field_forms/field_form_biannual.xlsx
+++ b/resources/field_forms/field_form_biannual.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$526</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -491,7 +492,7 @@
   <dimension ref="A1:O526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H382" sqref="H382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,28 +627,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>10587</v>
+        <v>10609</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>965</v>
+        <v>439</v>
       </c>
       <c r="E4" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4">
-        <v>2.6</v>
+        <v>19.5</v>
       </c>
       <c r="G4" s="4">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="H4" s="4">
-        <v>144.85</v>
+        <v>66.7</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -673,28 +674,28 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>10609</v>
+        <v>10587</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>439</v>
+        <v>965</v>
       </c>
       <c r="E5" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4">
-        <v>19.5</v>
+        <v>2.6</v>
       </c>
       <c r="G5" s="4">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4">
-        <v>66.7</v>
+        <v>144.85</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
@@ -1801,28 +1802,28 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>30467</v>
+        <v>30512</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="4">
-        <v>608</v>
+        <v>845.5</v>
       </c>
       <c r="E29" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F29" s="4">
-        <v>17.3</v>
+        <v>2.9</v>
       </c>
       <c r="G29" s="4">
-        <v>3</v>
+        <v>14.3</v>
       </c>
       <c r="H29" s="4">
-        <v>87.5</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>30</v>
@@ -1848,28 +1849,28 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>30512</v>
+        <v>30467</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4">
-        <v>845.5</v>
+        <v>608</v>
       </c>
       <c r="E30" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F30" s="4">
-        <v>2.9</v>
+        <v>17.3</v>
       </c>
       <c r="G30" s="4">
-        <v>14.3</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
-        <v>140.80000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>30</v>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>60458</v>
+        <v>60562</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3361,19 +3362,19 @@
         <v>9</v>
       </c>
       <c r="D62" s="4">
-        <v>269.5</v>
+        <v>124</v>
       </c>
       <c r="E62" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F62" s="4">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="G62" s="4">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H62" s="4">
-        <v>80</v>
+        <v>41.48</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>30</v>
@@ -3399,28 +3400,28 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>60459</v>
+        <v>60563</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4">
-        <v>99.7</v>
+        <v>87.5</v>
       </c>
       <c r="E63" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F63" s="4">
-        <v>2</v>
+        <v>14.2</v>
       </c>
       <c r="G63" s="4">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="H63" s="4">
-        <v>8.35</v>
+        <v>5.65</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>30</v>
@@ -3446,7 +3447,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>60462</v>
+        <v>60566</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -3455,19 +3456,19 @@
         <v>9</v>
       </c>
       <c r="D64" s="4">
-        <v>209.5</v>
+        <v>194.2</v>
       </c>
       <c r="E64" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F64" s="4">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="G64" s="4">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="H64" s="4">
-        <v>48.38</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>30</v>
@@ -3493,28 +3494,28 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>60463</v>
+        <v>60567</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4">
-        <v>468</v>
+        <v>536.79999999999995</v>
       </c>
       <c r="E65" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F65" s="4">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="G65" s="4">
-        <v>8</v>
+        <v>11.2</v>
       </c>
       <c r="H65" s="4">
-        <v>30.31</v>
+        <v>45.19</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>30</v>
@@ -3540,7 +3541,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>60468</v>
+        <v>60568</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -3549,19 +3550,19 @@
         <v>14</v>
       </c>
       <c r="D66" s="4">
-        <v>67.3</v>
+        <v>90.3</v>
       </c>
       <c r="E66" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F66" s="4">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="G66" s="4">
-        <v>9.6</v>
+        <v>15.6</v>
       </c>
       <c r="H66" s="4">
-        <v>27.38</v>
+        <v>14.79</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>30</v>
@@ -3587,28 +3588,28 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>60469</v>
+        <v>60569</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4">
-        <v>70</v>
+        <v>89.5</v>
       </c>
       <c r="E67" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F67" s="4">
-        <v>6.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G67" s="4">
-        <v>9.8000000000000007</v>
+        <v>16.2</v>
       </c>
       <c r="H67" s="4">
-        <v>8.43</v>
+        <v>26.15</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>30</v>
@@ -3634,28 +3635,28 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>60562</v>
+        <v>60571</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="4">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E68" s="4">
         <v>614</v>
       </c>
       <c r="F68" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G68" s="4">
-        <v>8.6999999999999993</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H68" s="4">
-        <v>41.48</v>
+        <v>16.8</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>30</v>
@@ -3681,28 +3682,28 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>60563</v>
+        <v>60573</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D69" s="4">
-        <v>87.5</v>
+        <v>258.5</v>
       </c>
       <c r="E69" s="4">
         <v>614</v>
       </c>
       <c r="F69" s="4">
-        <v>14.2</v>
+        <v>8.5</v>
       </c>
       <c r="G69" s="4">
-        <v>13.2</v>
+        <v>16.3</v>
       </c>
       <c r="H69" s="4">
-        <v>5.65</v>
+        <v>26.48</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>30</v>
@@ -3728,7 +3729,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>60566</v>
+        <v>60458</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -3737,19 +3738,19 @@
         <v>9</v>
       </c>
       <c r="D70" s="4">
-        <v>194.2</v>
+        <v>269.5</v>
       </c>
       <c r="E70" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F70" s="4">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="G70" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>75.849999999999994</v>
+        <v>80</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>30</v>
@@ -3775,28 +3776,28 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>60567</v>
+        <v>60459</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4">
-        <v>536.79999999999995</v>
+        <v>99.7</v>
       </c>
       <c r="E71" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F71" s="4">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4">
-        <v>11.2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="4">
-        <v>45.19</v>
+        <v>8.35</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>30</v>
@@ -3822,28 +3823,28 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>60568</v>
+        <v>60462</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4">
-        <v>90.3</v>
+        <v>209.5</v>
       </c>
       <c r="E72" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F72" s="4">
-        <v>15.5</v>
+        <v>5.6</v>
       </c>
       <c r="G72" s="4">
-        <v>15.6</v>
+        <v>7.6</v>
       </c>
       <c r="H72" s="4">
-        <v>14.79</v>
+        <v>48.38</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>30</v>
@@ -3869,28 +3870,28 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>60569</v>
+        <v>60463</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="4">
-        <v>89.5</v>
+        <v>468</v>
       </c>
       <c r="E73" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F73" s="4">
-        <v>19.399999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G73" s="4">
-        <v>16.2</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4">
-        <v>26.15</v>
+        <v>30.31</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>30</v>
@@ -3916,7 +3917,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>60571</v>
+        <v>60468</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -3925,19 +3926,19 @@
         <v>14</v>
       </c>
       <c r="D74" s="4">
-        <v>116</v>
+        <v>67.3</v>
       </c>
       <c r="E74" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F74" s="4">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="G74" s="4">
-        <v>17.399999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H74" s="4">
-        <v>16.8</v>
+        <v>27.38</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>30</v>
@@ -3963,28 +3964,28 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>60573</v>
+        <v>60469</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D75" s="4">
-        <v>258.5</v>
+        <v>70</v>
       </c>
       <c r="E75" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F75" s="4">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="G75" s="4">
-        <v>16.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H75" s="4">
-        <v>26.48</v>
+        <v>8.43</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>30</v>
@@ -4715,28 +4716,28 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>70096</v>
+        <v>70216</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>866.9</v>
+        <v>930.2</v>
       </c>
       <c r="E91" s="4">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F91" s="4">
-        <v>3.3</v>
+        <v>18.7</v>
       </c>
       <c r="G91" s="4">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="H91" s="4">
-        <v>147.1</v>
+        <v>124.54</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>30</v>
@@ -4754,7 +4755,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>37</v>
@@ -4762,28 +4763,28 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>70126</v>
+        <v>70220</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D92" s="4">
-        <v>821</v>
+        <v>533.9</v>
       </c>
       <c r="E92" s="4">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F92" s="4">
-        <v>9.3000000000000007</v>
+        <v>18.3</v>
       </c>
       <c r="G92" s="4">
-        <v>12.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" s="4">
-        <v>43.71</v>
+        <v>129.36000000000001</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>30</v>
@@ -4801,7 +4802,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>37</v>
@@ -4809,28 +4810,28 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>70181</v>
+        <v>70096</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="4">
-        <v>536.29999999999995</v>
+        <v>866.9</v>
       </c>
       <c r="E93" s="4">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F93" s="4">
-        <v>13.3</v>
+        <v>3.3</v>
       </c>
       <c r="G93" s="4">
-        <v>17.2</v>
+        <v>12.7</v>
       </c>
       <c r="H93" s="4">
-        <v>38.880000000000003</v>
+        <v>147.1</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>30</v>
@@ -4856,28 +4857,28 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>70216</v>
+        <v>70278</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" s="4">
-        <v>930.2</v>
+        <v>679.8</v>
       </c>
       <c r="E94" s="4">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F94" s="4">
-        <v>18.7</v>
+        <v>15.6</v>
       </c>
       <c r="G94" s="4">
-        <v>11.6</v>
+        <v>15.4</v>
       </c>
       <c r="H94" s="4">
-        <v>124.54</v>
+        <v>15</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>30</v>
@@ -4895,7 +4896,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>37</v>
@@ -4903,28 +4904,28 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>70220</v>
+        <v>70126</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D95" s="4">
-        <v>533.9</v>
+        <v>821</v>
       </c>
       <c r="E95" s="4">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F95" s="4">
-        <v>18.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G95" s="4">
-        <v>0.8</v>
+        <v>12.5</v>
       </c>
       <c r="H95" s="4">
-        <v>129.36000000000001</v>
+        <v>43.71</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>30</v>
@@ -4942,7 +4943,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>37</v>
@@ -4950,28 +4951,28 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>70278</v>
+        <v>70292</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D96" s="4">
-        <v>679.8</v>
+        <v>456.3</v>
       </c>
       <c r="E96" s="4">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F96" s="4">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="G96" s="4">
-        <v>15.4</v>
+        <v>2.1</v>
       </c>
       <c r="H96" s="4">
-        <v>15</v>
+        <v>54.28</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>30</v>
@@ -4997,28 +4998,28 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>70292</v>
+        <v>70181</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="4">
-        <v>456.3</v>
+        <v>536.29999999999995</v>
       </c>
       <c r="E97" s="4">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F97" s="4">
-        <v>14.6</v>
+        <v>13.3</v>
       </c>
       <c r="G97" s="4">
-        <v>2.1</v>
+        <v>17.2</v>
       </c>
       <c r="H97" s="4">
-        <v>54.28</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>30</v>
@@ -5232,28 +5233,28 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>70492</v>
+        <v>70519</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D102" s="4">
-        <v>198.6</v>
+        <v>544.79999999999995</v>
       </c>
       <c r="E102" s="4">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F102" s="4">
-        <v>0.1</v>
+        <v>15.5</v>
       </c>
       <c r="G102" s="4">
-        <v>11.2</v>
+        <v>3.3</v>
       </c>
       <c r="H102" s="4">
-        <v>37.65</v>
+        <v>77.75</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>30</v>
@@ -5271,7 +5272,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>37</v>
@@ -5279,28 +5280,28 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>70493</v>
+        <v>70536</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D103" s="4">
-        <v>539.20000000000005</v>
+        <v>583.9</v>
       </c>
       <c r="E103" s="4">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F103" s="4">
-        <v>0.3</v>
+        <v>11.9</v>
       </c>
       <c r="G103" s="4">
-        <v>15.2</v>
+        <v>7.4</v>
       </c>
       <c r="H103" s="4">
-        <v>68.69</v>
+        <v>100.86</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>30</v>
@@ -5318,7 +5319,7 @@
         <v>30</v>
       </c>
       <c r="N103" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>37</v>
@@ -5326,28 +5327,28 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>70494</v>
+        <v>70492</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D104" s="4">
-        <v>77.3</v>
+        <v>198.6</v>
       </c>
       <c r="E104" s="4">
         <v>714</v>
       </c>
       <c r="F104" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G104" s="4">
-        <v>15.7</v>
+        <v>11.2</v>
       </c>
       <c r="H104" s="4">
-        <v>11.92</v>
+        <v>37.65</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>30</v>
@@ -5373,28 +5374,28 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>70494</v>
+        <v>70493</v>
       </c>
       <c r="B105" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D105" s="4">
-        <v>60</v>
+        <v>539.20000000000005</v>
       </c>
       <c r="E105" s="4">
         <v>714</v>
       </c>
       <c r="F105" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G105" s="4">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="H105" s="4">
-        <v>20.9</v>
+        <v>68.69</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>30</v>
@@ -5420,7 +5421,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>70495</v>
+        <v>70494</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -5429,19 +5430,19 @@
         <v>14</v>
       </c>
       <c r="D106" s="4">
-        <v>67.900000000000006</v>
+        <v>77.3</v>
       </c>
       <c r="E106" s="4">
         <v>714</v>
       </c>
       <c r="F106" s="4">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="G106" s="4">
-        <v>18.600000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="H106" s="4">
-        <v>22.18</v>
+        <v>11.92</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>30</v>
@@ -5467,28 +5468,28 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>70519</v>
+        <v>70494</v>
       </c>
       <c r="B107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D107" s="4">
-        <v>544.79999999999995</v>
+        <v>60</v>
       </c>
       <c r="E107" s="4">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F107" s="4">
-        <v>15.5</v>
+        <v>0.4</v>
       </c>
       <c r="G107" s="4">
-        <v>3.3</v>
+        <v>15.7</v>
       </c>
       <c r="H107" s="4">
-        <v>77.75</v>
+        <v>20.9</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>30</v>
@@ -5506,7 +5507,7 @@
         <v>30</v>
       </c>
       <c r="N107" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>37</v>
@@ -5514,28 +5515,28 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>70536</v>
+        <v>70495</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D108" s="4">
-        <v>583.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E108" s="4">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F108" s="4">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="G108" s="4">
-        <v>7.4</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H108" s="4">
-        <v>100.86</v>
+        <v>22.18</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>30</v>
@@ -5553,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="N108" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>37</v>
@@ -6830,28 +6831,28 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>80554</v>
+        <v>80615</v>
       </c>
       <c r="B136" s="4">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D136" s="4">
-        <v>489.2</v>
+        <v>653.20000000000005</v>
       </c>
       <c r="E136" s="4">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F136" s="4">
-        <v>6.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G136" s="4">
-        <v>11.2</v>
+        <v>16.8</v>
       </c>
       <c r="H136" s="4">
-        <v>58.93</v>
+        <v>1.9</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>30</v>
@@ -6877,28 +6878,28 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>80559</v>
+        <v>80628</v>
       </c>
       <c r="B137" s="4">
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D137" s="4">
-        <v>434.6</v>
+        <v>544.5</v>
       </c>
       <c r="E137" s="4">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F137" s="4">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="G137" s="4">
-        <v>17.8</v>
+        <v>3</v>
       </c>
       <c r="H137" s="4">
-        <v>5.69</v>
+        <v>38.85</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>30</v>
@@ -6924,7 +6925,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>80615</v>
+        <v>80631</v>
       </c>
       <c r="B138" s="4">
         <v>1</v>
@@ -6933,19 +6934,19 @@
         <v>3</v>
       </c>
       <c r="D138" s="4">
-        <v>653.20000000000005</v>
+        <v>521.4</v>
       </c>
       <c r="E138" s="4">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F138" s="4">
-        <v>4.4000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G138" s="4">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="H138" s="4">
-        <v>1.9</v>
+        <v>122.55</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>30</v>
@@ -6971,28 +6972,28 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>80628</v>
+        <v>80554</v>
       </c>
       <c r="B139" s="4">
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D139" s="4">
-        <v>544.5</v>
+        <v>489.2</v>
       </c>
       <c r="E139" s="4">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F139" s="4">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="G139" s="4">
-        <v>3</v>
+        <v>11.2</v>
       </c>
       <c r="H139" s="4">
-        <v>38.85</v>
+        <v>58.93</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>30</v>
@@ -7018,28 +7019,28 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>80631</v>
+        <v>80559</v>
       </c>
       <c r="B140" s="4">
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D140" s="4">
-        <v>521.4</v>
+        <v>434.6</v>
       </c>
       <c r="E140" s="4">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F140" s="4">
-        <v>0.2</v>
+        <v>8.9</v>
       </c>
       <c r="G140" s="4">
-        <v>6.1</v>
+        <v>17.8</v>
       </c>
       <c r="H140" s="4">
-        <v>122.55</v>
+        <v>5.69</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>30</v>
@@ -8099,7 +8100,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>90530</v>
+        <v>91435</v>
       </c>
       <c r="B163" s="4">
         <v>1</v>
@@ -8108,19 +8109,19 @@
         <v>3</v>
       </c>
       <c r="D163" s="4">
-        <v>647.5</v>
+        <v>228.5</v>
       </c>
       <c r="E163" s="4">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F163" s="4">
-        <v>10.199999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="G163" s="4">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="H163" s="4">
-        <v>102.5</v>
+        <v>51</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>30</v>
@@ -8146,43 +8147,43 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>90533</v>
+        <v>91451</v>
       </c>
       <c r="B164" s="4">
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164" s="4">
-        <v>492.1</v>
+        <v>555.1</v>
       </c>
       <c r="E164" s="4">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F164" s="4">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="G164" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="H164" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I164" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K164" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L164" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M164" s="1" t="e">
-        <v>#N/A</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H164" s="4">
+        <v>96.63</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N164" s="5">
         <v>2</v>
@@ -8193,28 +8194,28 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>90612</v>
+        <v>91474</v>
       </c>
       <c r="B165" s="4">
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D165" s="4">
-        <v>552</v>
+        <v>438.2</v>
       </c>
       <c r="E165" s="4">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F165" s="4">
-        <v>10.7</v>
+        <v>14.5</v>
       </c>
       <c r="G165" s="4">
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="H165" s="4">
-        <v>103.27</v>
+        <v>33.6</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>30</v>
@@ -8240,28 +8241,28 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>90660</v>
+        <v>91476</v>
       </c>
       <c r="B166" s="4">
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D166" s="4">
-        <v>947.4</v>
+        <v>505.4</v>
       </c>
       <c r="E166" s="4">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F166" s="4">
-        <v>4.9000000000000004</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G166" s="4">
-        <v>7.9</v>
+        <v>2.4</v>
       </c>
       <c r="H166" s="4">
-        <v>31.82</v>
+        <v>98.4</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>30</v>
@@ -8287,28 +8288,28 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>90752</v>
+        <v>91477</v>
       </c>
       <c r="B167" s="4">
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D167" s="4">
-        <v>510.1</v>
+        <v>210</v>
       </c>
       <c r="E167" s="4">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="F167" s="4">
-        <v>12.4</v>
+        <v>19.3</v>
       </c>
       <c r="G167" s="4">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="H167" s="4">
-        <v>41.08</v>
+        <v>43.11</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>30</v>
@@ -8326,36 +8327,36 @@
         <v>30</v>
       </c>
       <c r="N167" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>91435</v>
+        <v>91486</v>
       </c>
       <c r="B168" s="4">
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" s="4">
-        <v>228.5</v>
+        <v>570.9</v>
       </c>
       <c r="E168" s="4">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F168" s="4">
-        <v>13.6</v>
+        <v>17.5</v>
       </c>
       <c r="G168" s="4">
-        <v>12.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H168" s="4">
-        <v>51</v>
+        <v>21.25</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>30</v>
@@ -8381,7 +8382,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>91451</v>
+        <v>90530</v>
       </c>
       <c r="B169" s="4">
         <v>1</v>
@@ -8390,19 +8391,19 @@
         <v>3</v>
       </c>
       <c r="D169" s="4">
-        <v>555.1</v>
+        <v>647.5</v>
       </c>
       <c r="E169" s="4">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F169" s="4">
-        <v>18.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G169" s="4">
-        <v>17.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="H169" s="4">
-        <v>96.63</v>
+        <v>102.5</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>30</v>
@@ -8428,28 +8429,28 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>91474</v>
+        <v>90612</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D170" s="4">
-        <v>438.2</v>
+        <v>552</v>
       </c>
       <c r="E170" s="4">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F170" s="4">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
       <c r="G170" s="4">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="H170" s="4">
-        <v>33.6</v>
+        <v>103.27</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>30</v>
@@ -8475,43 +8476,43 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>91476</v>
+        <v>90533</v>
       </c>
       <c r="B171" s="4">
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" s="4">
-        <v>505.4</v>
+        <v>492.1</v>
       </c>
       <c r="E171" s="4">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F171" s="4">
-        <v>18.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="G171" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="H171" s="4">
-        <v>98.4</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>30</v>
+        <v>2.1</v>
+      </c>
+      <c r="H171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M171" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N171" s="5">
         <v>2</v>
@@ -8522,28 +8523,28 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>91477</v>
+        <v>90660</v>
       </c>
       <c r="B172" s="4">
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172" s="4">
-        <v>210</v>
+        <v>947.4</v>
       </c>
       <c r="E172" s="4">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="F172" s="4">
-        <v>19.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G172" s="4">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="H172" s="4">
-        <v>43.11</v>
+        <v>31.82</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>30</v>
@@ -8569,28 +8570,28 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>91486</v>
+        <v>90752</v>
       </c>
       <c r="B173" s="4">
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D173" s="4">
-        <v>570.9</v>
+        <v>510.1</v>
       </c>
       <c r="E173" s="4">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="F173" s="4">
-        <v>17.5</v>
+        <v>12.4</v>
       </c>
       <c r="G173" s="4">
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="H173" s="4">
-        <v>21.25</v>
+        <v>41.08</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>30</v>
@@ -8608,10 +8609,10 @@
         <v>30</v>
       </c>
       <c r="N173" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -9462,7 +9463,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>100516</v>
+        <v>100612</v>
       </c>
       <c r="B192" s="4">
         <v>1</v>
@@ -9471,19 +9472,19 @@
         <v>3</v>
       </c>
       <c r="D192" s="4">
-        <v>1036.0999999999999</v>
+        <v>1200.9000000000001</v>
       </c>
       <c r="E192" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F192" s="4">
-        <v>17.899999999999999</v>
+        <v>12</v>
       </c>
       <c r="G192" s="4">
-        <v>2.2999999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H192" s="4">
-        <v>49.45</v>
+        <v>47.45</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>30</v>
@@ -9509,7 +9510,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>100562</v>
+        <v>100516</v>
       </c>
       <c r="B193" s="4">
         <v>1</v>
@@ -9518,19 +9519,19 @@
         <v>3</v>
       </c>
       <c r="D193" s="4">
-        <v>628.20000000000005</v>
+        <v>1036.0999999999999</v>
       </c>
       <c r="E193" s="4">
         <v>1004</v>
       </c>
       <c r="F193" s="4">
-        <v>9.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G193" s="4">
-        <v>19.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H193" s="4">
-        <v>122.9</v>
+        <v>49.45</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>30</v>
@@ -9556,7 +9557,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>100612</v>
+        <v>100562</v>
       </c>
       <c r="B194" s="4">
         <v>1</v>
@@ -9565,19 +9566,19 @@
         <v>3</v>
       </c>
       <c r="D194" s="4">
-        <v>1200.9000000000001</v>
+        <v>628.20000000000005</v>
       </c>
       <c r="E194" s="4">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F194" s="4">
-        <v>12</v>
+        <v>9.1</v>
       </c>
       <c r="G194" s="4">
-        <v>4.4000000000000004</v>
+        <v>19.2</v>
       </c>
       <c r="H194" s="4">
-        <v>47.45</v>
+        <v>122.9</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>30</v>
@@ -12893,28 +12894,28 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>112466</v>
+        <v>112698</v>
       </c>
       <c r="B265" s="4">
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D265" s="4">
-        <v>234.6</v>
+        <v>106.5</v>
       </c>
       <c r="E265" s="4">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F265" s="4">
-        <v>17.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G265" s="4">
-        <v>7.1</v>
+        <v>18.2</v>
       </c>
       <c r="H265" s="4">
-        <v>16.39</v>
+        <v>24.2</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>30</v>
@@ -12940,28 +12941,28 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>112467</v>
+        <v>112466</v>
       </c>
       <c r="B266" s="4">
         <v>1</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D266" s="4">
-        <v>479</v>
+        <v>234.6</v>
       </c>
       <c r="E266" s="4">
         <v>1129</v>
       </c>
       <c r="F266" s="4">
-        <v>19.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="G266" s="4">
-        <v>12.5</v>
+        <v>7.1</v>
       </c>
       <c r="H266" s="4">
-        <v>78.87</v>
+        <v>16.39</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>30</v>
@@ -12987,7 +12988,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>112480</v>
+        <v>112467</v>
       </c>
       <c r="B267" s="4">
         <v>1</v>
@@ -12996,19 +12997,19 @@
         <v>3</v>
       </c>
       <c r="D267" s="4">
-        <v>611.29999999999995</v>
+        <v>479</v>
       </c>
       <c r="E267" s="4">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F267" s="4">
-        <v>14.4</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G267" s="4">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="H267" s="4">
-        <v>64.73</v>
+        <v>78.87</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>30</v>
@@ -13034,7 +13035,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>112481</v>
+        <v>112480</v>
       </c>
       <c r="B268" s="4">
         <v>1</v>
@@ -13043,19 +13044,19 @@
         <v>3</v>
       </c>
       <c r="D268" s="4">
-        <v>460.1</v>
+        <v>611.29999999999995</v>
       </c>
       <c r="E268" s="4">
         <v>1131</v>
       </c>
       <c r="F268" s="4">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="G268" s="4">
-        <v>14.4</v>
+        <v>10.9</v>
       </c>
       <c r="H268" s="4">
-        <v>63.83</v>
+        <v>64.73</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>30</v>
@@ -13081,7 +13082,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>112482</v>
+        <v>112481</v>
       </c>
       <c r="B269" s="4">
         <v>1</v>
@@ -13090,19 +13091,19 @@
         <v>3</v>
       </c>
       <c r="D269" s="4">
-        <v>263.2</v>
+        <v>460.1</v>
       </c>
       <c r="E269" s="4">
         <v>1131</v>
       </c>
       <c r="F269" s="4">
-        <v>17.8</v>
+        <v>14.9</v>
       </c>
       <c r="G269" s="4">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="H269" s="4">
-        <v>55.29</v>
+        <v>63.83</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>30</v>
@@ -13128,28 +13129,28 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>112485</v>
+        <v>112482</v>
       </c>
       <c r="B270" s="4">
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D270" s="4">
-        <v>665.6</v>
+        <v>263.2</v>
       </c>
       <c r="E270" s="4">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F270" s="4">
-        <v>19.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="G270" s="4">
-        <v>6.2</v>
+        <v>15.9</v>
       </c>
       <c r="H270" s="4">
-        <v>73.09</v>
+        <v>55.29</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>30</v>
@@ -13175,28 +13176,28 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>112698</v>
+        <v>112485</v>
       </c>
       <c r="B271" s="4">
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D271" s="4">
-        <v>106.5</v>
+        <v>665.6</v>
       </c>
       <c r="E271" s="4">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F271" s="4">
-        <v>17.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G271" s="4">
-        <v>18.2</v>
+        <v>6.2</v>
       </c>
       <c r="H271" s="4">
-        <v>24.2</v>
+        <v>73.09</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>30</v>
@@ -13457,28 +13458,28 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>121195</v>
+        <v>121212</v>
       </c>
       <c r="B277" s="4">
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D277" s="4">
-        <v>914.7</v>
+        <v>851.1</v>
       </c>
       <c r="E277" s="4">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F277" s="4">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="G277" s="4">
-        <v>0.4</v>
+        <v>12.5</v>
       </c>
       <c r="H277" s="4">
-        <v>39</v>
+        <v>62.57</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>30</v>
@@ -13504,7 +13505,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>121212</v>
+        <v>121221</v>
       </c>
       <c r="B278" s="4">
         <v>1</v>
@@ -13513,19 +13514,19 @@
         <v>3</v>
       </c>
       <c r="D278" s="4">
-        <v>851.1</v>
+        <v>117.2</v>
       </c>
       <c r="E278" s="4">
         <v>1207</v>
       </c>
       <c r="F278" s="4">
-        <v>12.7</v>
+        <v>1.7</v>
       </c>
       <c r="G278" s="4">
-        <v>12.5</v>
+        <v>19.3</v>
       </c>
       <c r="H278" s="4">
-        <v>62.57</v>
+        <v>5.2</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>30</v>
@@ -13551,28 +13552,28 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>121221</v>
+        <v>121275</v>
       </c>
       <c r="B279" s="4">
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D279" s="4">
-        <v>117.2</v>
+        <v>256</v>
       </c>
       <c r="E279" s="4">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F279" s="4">
         <v>1.7</v>
       </c>
       <c r="G279" s="4">
-        <v>19.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H279" s="4">
-        <v>5.2</v>
+        <v>21.2</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>30</v>
@@ -13598,7 +13599,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>121275</v>
+        <v>121291</v>
       </c>
       <c r="B280" s="4">
         <v>1</v>
@@ -13607,19 +13608,19 @@
         <v>11</v>
       </c>
       <c r="D280" s="4">
-        <v>256</v>
+        <v>439.2</v>
       </c>
       <c r="E280" s="4">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F280" s="4">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="G280" s="4">
-        <v>16.899999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H280" s="4">
-        <v>21.2</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>30</v>
@@ -13645,28 +13646,28 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>121291</v>
+        <v>121195</v>
       </c>
       <c r="B281" s="4">
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D281" s="4">
-        <v>439.2</v>
+        <v>914.7</v>
       </c>
       <c r="E281" s="4">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F281" s="4">
-        <v>2.8</v>
+        <v>12.4</v>
       </c>
       <c r="G281" s="4">
-        <v>9.4</v>
+        <v>0.4</v>
       </c>
       <c r="H281" s="4">
-        <v>78.900000000000006</v>
+        <v>39</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>30</v>
@@ -14491,28 +14492,28 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>122427</v>
+        <v>122450</v>
       </c>
       <c r="B299" s="4">
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D299" s="4">
-        <v>832.7</v>
+        <v>246</v>
       </c>
       <c r="E299" s="4">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F299" s="4">
-        <v>17</v>
+        <v>2.6</v>
       </c>
       <c r="G299" s="4">
-        <v>15.6</v>
+        <v>18.7</v>
       </c>
       <c r="H299" s="4">
-        <v>151.76</v>
+        <v>52.54</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>30</v>
@@ -14538,28 +14539,28 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>122439</v>
+        <v>122452</v>
       </c>
       <c r="B300" s="4">
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D300" s="4">
-        <v>179</v>
+        <v>516.70000000000005</v>
       </c>
       <c r="E300" s="4">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F300" s="4">
-        <v>12.6</v>
+        <v>5.7</v>
       </c>
       <c r="G300" s="4">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="H300" s="4">
-        <v>27.72</v>
+        <v>65.95</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>30</v>
@@ -14585,28 +14586,28 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>122450</v>
+        <v>122455</v>
       </c>
       <c r="B301" s="4">
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D301" s="4">
-        <v>246</v>
+        <v>639.70000000000005</v>
       </c>
       <c r="E301" s="4">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="F301" s="4">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="G301" s="4">
-        <v>18.7</v>
+        <v>4.2</v>
       </c>
       <c r="H301" s="4">
-        <v>52.54</v>
+        <v>95.44</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>30</v>
@@ -14632,28 +14633,28 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>122452</v>
+        <v>122458</v>
       </c>
       <c r="B302" s="4">
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D302" s="4">
-        <v>516.70000000000005</v>
+        <v>227</v>
       </c>
       <c r="E302" s="4">
         <v>1226</v>
       </c>
       <c r="F302" s="4">
-        <v>5.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G302" s="4">
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H302" s="4">
-        <v>65.95</v>
+        <v>88.91</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>30</v>
@@ -14679,7 +14680,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>122455</v>
+        <v>122427</v>
       </c>
       <c r="B303" s="4">
         <v>1</v>
@@ -14688,19 +14689,19 @@
         <v>8</v>
       </c>
       <c r="D303" s="4">
-        <v>639.70000000000005</v>
+        <v>832.7</v>
       </c>
       <c r="E303" s="4">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F303" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G303" s="4">
-        <v>4.2</v>
+        <v>15.6</v>
       </c>
       <c r="H303" s="4">
-        <v>95.44</v>
+        <v>151.76</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>30</v>
@@ -14726,7 +14727,7 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>122458</v>
+        <v>122439</v>
       </c>
       <c r="B304" s="4">
         <v>1</v>
@@ -14735,19 +14736,19 @@
         <v>4</v>
       </c>
       <c r="D304" s="4">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="E304" s="4">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="F304" s="4">
-        <v>4.5999999999999996</v>
+        <v>12.6</v>
       </c>
       <c r="G304" s="4">
-        <v>4.9000000000000004</v>
+        <v>13</v>
       </c>
       <c r="H304" s="4">
-        <v>88.91</v>
+        <v>27.72</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>30</v>
@@ -14961,7 +14962,7 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>122522</v>
+        <v>122561</v>
       </c>
       <c r="B309" s="4">
         <v>1</v>
@@ -14970,19 +14971,19 @@
         <v>3</v>
       </c>
       <c r="D309" s="4">
-        <v>424.6</v>
+        <v>664.7</v>
       </c>
       <c r="E309" s="4">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F309" s="4">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G309" s="4">
-        <v>17.399999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H309" s="4">
-        <v>76.73</v>
+        <v>124.94</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>30</v>
@@ -15008,7 +15009,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>122561</v>
+        <v>122522</v>
       </c>
       <c r="B310" s="4">
         <v>1</v>
@@ -15017,19 +15018,19 @@
         <v>3</v>
       </c>
       <c r="D310" s="4">
-        <v>664.7</v>
+        <v>424.6</v>
       </c>
       <c r="E310" s="4">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F310" s="4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G310" s="4">
-        <v>7.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H310" s="4">
-        <v>124.94</v>
+        <v>76.73</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>30</v>
@@ -15102,7 +15103,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>130718</v>
+        <v>130838</v>
       </c>
       <c r="B312" s="4">
         <v>1</v>
@@ -15111,19 +15112,19 @@
         <v>3</v>
       </c>
       <c r="D312" s="4">
-        <v>1012</v>
+        <v>652.4</v>
       </c>
       <c r="E312" s="4">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F312" s="4">
-        <v>7.3</v>
+        <v>12.2</v>
       </c>
       <c r="G312" s="4">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H312" s="4">
-        <v>142.44999999999999</v>
+        <v>133.07</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>30</v>
@@ -15149,7 +15150,7 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>130838</v>
+        <v>130718</v>
       </c>
       <c r="B313" s="4">
         <v>1</v>
@@ -15158,19 +15159,19 @@
         <v>3</v>
       </c>
       <c r="D313" s="4">
-        <v>652.4</v>
+        <v>1012</v>
       </c>
       <c r="E313" s="4">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F313" s="4">
-        <v>12.2</v>
+        <v>7.3</v>
       </c>
       <c r="G313" s="4">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="H313" s="4">
-        <v>133.07</v>
+        <v>142.44999999999999</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>30</v>
@@ -16512,28 +16513,28 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>140467</v>
+        <v>140609</v>
       </c>
       <c r="B342" s="4">
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D342" s="4">
-        <v>1520</v>
+        <v>1081.9000000000001</v>
       </c>
       <c r="E342" s="4">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F342" s="4">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="G342" s="4">
-        <v>18.5</v>
+        <v>3.6</v>
       </c>
       <c r="H342" s="4">
-        <v>93.58</v>
+        <v>5.6</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>30</v>
@@ -16559,28 +16560,28 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>140609</v>
+        <v>140467</v>
       </c>
       <c r="B343" s="4">
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D343" s="4">
-        <v>1081.9000000000001</v>
+        <v>1520</v>
       </c>
       <c r="E343" s="4">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="F343" s="4">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="G343" s="4">
-        <v>3.6</v>
+        <v>18.5</v>
       </c>
       <c r="H343" s="4">
-        <v>5.6</v>
+        <v>93.58</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>30</v>
@@ -17311,28 +17312,28 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>142380</v>
+        <v>142521</v>
       </c>
       <c r="B359" s="4">
         <v>1</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D359" s="4">
-        <v>574.9</v>
+        <v>452</v>
       </c>
       <c r="E359" s="4">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="F359" s="4">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G359" s="4">
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="H359" s="4">
-        <v>131.05000000000001</v>
+        <v>29.23</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>30</v>
@@ -17350,7 +17351,7 @@
         <v>30</v>
       </c>
       <c r="N359" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O359" s="1" t="s">
         <v>38</v>
@@ -17358,28 +17359,28 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>142521</v>
+        <v>142527</v>
       </c>
       <c r="B360" s="4">
         <v>1</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D360" s="4">
-        <v>452</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="E360" s="4">
         <v>1422</v>
       </c>
       <c r="F360" s="4">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G360" s="4">
-        <v>11.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H360" s="4">
-        <v>29.23</v>
+        <v>28.87</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>30</v>
@@ -17405,28 +17406,28 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>142527</v>
+        <v>142380</v>
       </c>
       <c r="B361" s="4">
         <v>1</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D361" s="4">
-        <v>159.80000000000001</v>
+        <v>574.9</v>
       </c>
       <c r="E361" s="4">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="F361" s="4">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="G361" s="4">
-        <v>18.399999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="H361" s="4">
-        <v>28.87</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>30</v>
@@ -17444,7 +17445,7 @@
         <v>30</v>
       </c>
       <c r="N361" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O361" s="1" t="s">
         <v>38</v>
@@ -17499,28 +17500,28 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>142656</v>
+        <v>143707</v>
       </c>
       <c r="B363" s="4">
         <v>1</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D363" s="4">
-        <v>424.6</v>
+        <v>144.5</v>
       </c>
       <c r="E363" s="4">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="F363" s="4">
-        <v>12.4</v>
+        <v>0.9</v>
       </c>
       <c r="G363" s="4">
-        <v>12.8</v>
+        <v>1.6</v>
       </c>
       <c r="H363" s="4">
-        <v>54.8</v>
+        <v>14.01</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>30</v>
@@ -17593,7 +17594,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>142727</v>
+        <v>142656</v>
       </c>
       <c r="B365" s="4">
         <v>1</v>
@@ -17602,19 +17603,19 @@
         <v>3</v>
       </c>
       <c r="D365" s="4">
-        <v>932.5</v>
+        <v>424.6</v>
       </c>
       <c r="E365" s="4">
         <v>1431</v>
       </c>
       <c r="F365" s="4">
-        <v>1.7</v>
+        <v>12.4</v>
       </c>
       <c r="G365" s="4">
-        <v>8.1999999999999993</v>
+        <v>12.8</v>
       </c>
       <c r="H365" s="4">
-        <v>132.38</v>
+        <v>54.8</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>30</v>
@@ -17640,7 +17641,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>142729</v>
+        <v>142727</v>
       </c>
       <c r="B366" s="4">
         <v>1</v>
@@ -17649,19 +17650,19 @@
         <v>3</v>
       </c>
       <c r="D366" s="4">
-        <v>474</v>
+        <v>932.5</v>
       </c>
       <c r="E366" s="4">
         <v>1431</v>
       </c>
       <c r="F366" s="4">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="G366" s="4">
-        <v>14.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H366" s="4">
-        <v>45.22</v>
+        <v>132.38</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>30</v>
@@ -17687,7 +17688,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>142730</v>
+        <v>142729</v>
       </c>
       <c r="B367" s="4">
         <v>1</v>
@@ -17696,19 +17697,19 @@
         <v>3</v>
       </c>
       <c r="D367" s="4">
-        <v>670</v>
+        <v>474</v>
       </c>
       <c r="E367" s="4">
         <v>1431</v>
       </c>
       <c r="F367" s="4">
-        <v>9.9</v>
+        <v>4.7</v>
       </c>
       <c r="G367" s="4">
         <v>14.7</v>
       </c>
       <c r="H367" s="4">
-        <v>11.52</v>
+        <v>45.22</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>30</v>
@@ -17734,7 +17735,7 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>142731</v>
+        <v>142730</v>
       </c>
       <c r="B368" s="4">
         <v>1</v>
@@ -17743,19 +17744,19 @@
         <v>3</v>
       </c>
       <c r="D368" s="4">
-        <v>528.20000000000005</v>
+        <v>670</v>
       </c>
       <c r="E368" s="4">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F368" s="4">
-        <v>8.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="G368" s="4">
-        <v>2.2999999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="H368" s="4">
-        <v>51.17</v>
+        <v>11.52</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>30</v>
@@ -17781,28 +17782,28 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>142732</v>
+        <v>142731</v>
       </c>
       <c r="B369" s="4">
         <v>1</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D369" s="4">
-        <v>217.5</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="E369" s="4">
         <v>1432</v>
       </c>
       <c r="F369" s="4">
-        <v>1.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G369" s="4">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H369" s="4">
-        <v>29.3</v>
+        <v>51.17</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>30</v>
@@ -17828,28 +17829,28 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>142733</v>
+        <v>142732</v>
       </c>
       <c r="B370" s="4">
         <v>1</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D370" s="4">
-        <v>608.5</v>
+        <v>217.5</v>
       </c>
       <c r="E370" s="4">
         <v>1432</v>
       </c>
       <c r="F370" s="4">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G370" s="4">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H370" s="4">
-        <v>6.66</v>
+        <v>29.3</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>30</v>
@@ -17875,28 +17876,28 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>142735</v>
+        <v>142733</v>
       </c>
       <c r="B371" s="4">
         <v>1</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D371" s="4">
-        <v>639.6</v>
+        <v>608.5</v>
       </c>
       <c r="E371" s="4">
         <v>1432</v>
       </c>
       <c r="F371" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G371" s="4">
         <v>5.4</v>
       </c>
-      <c r="G371" s="4">
-        <v>9.6</v>
-      </c>
       <c r="H371" s="4">
-        <v>64.12</v>
+        <v>6.66</v>
       </c>
       <c r="I371" s="1" t="s">
         <v>30</v>
@@ -17922,28 +17923,28 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>143707</v>
+        <v>142735</v>
       </c>
       <c r="B372" s="4">
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D372" s="4">
-        <v>144.5</v>
+        <v>639.6</v>
       </c>
       <c r="E372" s="4">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="F372" s="4">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="G372" s="4">
-        <v>1.6</v>
+        <v>9.6</v>
       </c>
       <c r="H372" s="4">
-        <v>14.01</v>
+        <v>64.12</v>
       </c>
       <c r="I372" s="1" t="s">
         <v>30</v>
@@ -18251,28 +18252,28 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>160862</v>
+        <v>160910</v>
       </c>
       <c r="B379" s="4">
         <v>1</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D379" s="4">
-        <v>834</v>
+        <v>973</v>
       </c>
       <c r="E379" s="4">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="F379" s="4">
-        <v>12.4</v>
+        <v>8.6</v>
       </c>
       <c r="G379" s="4">
-        <v>15.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H379" s="4">
-        <v>4.0199999999999996</v>
+        <v>71.28</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>30</v>
@@ -18298,7 +18299,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>160910</v>
+        <v>160985</v>
       </c>
       <c r="B380" s="4">
         <v>1</v>
@@ -18307,19 +18308,19 @@
         <v>3</v>
       </c>
       <c r="D380" s="4">
-        <v>973</v>
+        <v>845.9</v>
       </c>
       <c r="E380" s="4">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="F380" s="4">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="G380" s="4">
-        <v>1.1000000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="H380" s="4">
-        <v>71.28</v>
+        <v>109.59</v>
       </c>
       <c r="I380" s="1" t="s">
         <v>30</v>
@@ -18345,28 +18346,28 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>160985</v>
+        <v>160862</v>
       </c>
       <c r="B381" s="4">
         <v>1</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D381" s="4">
-        <v>845.9</v>
+        <v>834</v>
       </c>
       <c r="E381" s="4">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F381" s="4">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="G381" s="4">
-        <v>17.2</v>
+        <v>15.2</v>
       </c>
       <c r="H381" s="4">
-        <v>109.59</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>30</v>
@@ -18439,28 +18440,28 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>162439</v>
+        <v>162503</v>
       </c>
       <c r="B383" s="4">
         <v>1</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D383" s="4">
-        <v>832.5</v>
+        <v>898.4</v>
       </c>
       <c r="E383" s="4">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="F383" s="4">
-        <v>16.3</v>
+        <v>1.3</v>
       </c>
       <c r="G383" s="4">
-        <v>0.3</v>
+        <v>12.3</v>
       </c>
       <c r="H383" s="4">
-        <v>144.58000000000001</v>
+        <v>124.49</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>30</v>
@@ -18478,7 +18479,7 @@
         <v>30</v>
       </c>
       <c r="N383" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O383" s="1" t="s">
         <v>38</v>
@@ -18486,28 +18487,28 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>162503</v>
+        <v>162439</v>
       </c>
       <c r="B384" s="4">
         <v>1</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D384" s="4">
-        <v>898.4</v>
+        <v>832.5</v>
       </c>
       <c r="E384" s="4">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="F384" s="4">
-        <v>1.3</v>
+        <v>16.3</v>
       </c>
       <c r="G384" s="4">
-        <v>12.3</v>
+        <v>0.3</v>
       </c>
       <c r="H384" s="4">
-        <v>124.49</v>
+        <v>144.58000000000001</v>
       </c>
       <c r="I384" s="1" t="s">
         <v>30</v>
@@ -18525,7 +18526,7 @@
         <v>30</v>
       </c>
       <c r="N384" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O384" s="1" t="s">
         <v>38</v>
@@ -19238,28 +19239,28 @@
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>172154</v>
+        <v>172201</v>
       </c>
       <c r="B400" s="4">
         <v>1</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D400" s="4">
-        <v>894</v>
+        <v>66.2</v>
       </c>
       <c r="E400" s="4">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="F400" s="4">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="G400" s="4">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H400" s="4">
-        <v>103.07</v>
+        <v>47.51</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>30</v>
@@ -19285,28 +19286,28 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>172201</v>
+        <v>172202</v>
       </c>
       <c r="B401" s="4">
         <v>1</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D401" s="4">
-        <v>66.2</v>
+        <v>555.1</v>
       </c>
       <c r="E401" s="4">
         <v>1717</v>
       </c>
       <c r="F401" s="4">
-        <v>19.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G401" s="4">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H401" s="4">
-        <v>47.51</v>
+        <v>45.98</v>
       </c>
       <c r="I401" s="1" t="s">
         <v>30</v>
@@ -19332,28 +19333,28 @@
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>172202</v>
+        <v>172203</v>
       </c>
       <c r="B402" s="4">
         <v>1</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D402" s="4">
-        <v>555.1</v>
+        <v>368.5</v>
       </c>
       <c r="E402" s="4">
         <v>1717</v>
       </c>
       <c r="F402" s="4">
-        <v>17.100000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="G402" s="4">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H402" s="4">
-        <v>45.98</v>
+        <v>11.6</v>
       </c>
       <c r="I402" s="1" t="s">
         <v>30</v>
@@ -19379,7 +19380,7 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>172203</v>
+        <v>172205</v>
       </c>
       <c r="B403" s="4">
         <v>1</v>
@@ -19388,19 +19389,19 @@
         <v>8</v>
       </c>
       <c r="D403" s="4">
-        <v>368.5</v>
+        <v>493</v>
       </c>
       <c r="E403" s="4">
         <v>1717</v>
       </c>
       <c r="F403" s="4">
-        <v>15.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G403" s="4">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H403" s="4">
-        <v>11.6</v>
+        <v>116.85</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>30</v>
@@ -19426,28 +19427,28 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>172205</v>
+        <v>172248</v>
       </c>
       <c r="B404" s="4">
         <v>1</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D404" s="4">
-        <v>493</v>
+        <v>274.2</v>
       </c>
       <c r="E404" s="4">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F404" s="4">
-        <v>16.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="G404" s="4">
-        <v>3.5</v>
+        <v>19.3</v>
       </c>
       <c r="H404" s="4">
-        <v>116.85</v>
+        <v>23.78</v>
       </c>
       <c r="I404" s="1" t="s">
         <v>30</v>
@@ -19473,28 +19474,28 @@
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>172248</v>
+        <v>172255</v>
       </c>
       <c r="B405" s="4">
         <v>1</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D405" s="4">
-        <v>274.2</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="E405" s="4">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F405" s="4">
-        <v>19.2</v>
+        <v>9.9</v>
       </c>
       <c r="G405" s="4">
-        <v>19.3</v>
+        <v>1.3</v>
       </c>
       <c r="H405" s="4">
-        <v>23.78</v>
+        <v>85.29</v>
       </c>
       <c r="I405" s="1" t="s">
         <v>30</v>
@@ -19520,28 +19521,28 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>172255</v>
+        <v>172260</v>
       </c>
       <c r="B406" s="4">
         <v>1</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D406" s="4">
-        <v>645.20000000000005</v>
+        <v>660</v>
       </c>
       <c r="E406" s="4">
         <v>1720</v>
       </c>
       <c r="F406" s="4">
-        <v>9.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G406" s="4">
-        <v>1.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H406" s="4">
-        <v>85.29</v>
+        <v>74.06</v>
       </c>
       <c r="I406" s="1" t="s">
         <v>30</v>
@@ -19567,28 +19568,28 @@
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>172260</v>
+        <v>172154</v>
       </c>
       <c r="B407" s="4">
         <v>1</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D407" s="4">
-        <v>660</v>
+        <v>894</v>
       </c>
       <c r="E407" s="4">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="F407" s="4">
-        <v>19.399999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G407" s="4">
-        <v>5.0999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="H407" s="4">
-        <v>74.06</v>
+        <v>103.07</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>30</v>
@@ -19990,28 +19991,28 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>172499</v>
+        <v>172556</v>
       </c>
       <c r="B416" s="4">
         <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D416" s="4">
-        <v>1031.9000000000001</v>
+        <v>817.5</v>
       </c>
       <c r="E416" s="4">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F416" s="4">
-        <v>17</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G416" s="4">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H416" s="4">
-        <v>128.81</v>
+        <v>7.47</v>
       </c>
       <c r="I416" s="1" t="s">
         <v>30</v>
@@ -20037,28 +20038,28 @@
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>172556</v>
+        <v>172499</v>
       </c>
       <c r="B417" s="4">
         <v>1</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D417" s="4">
-        <v>817.5</v>
+        <v>1031.9000000000001</v>
       </c>
       <c r="E417" s="4">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="F417" s="4">
-        <v>5.0999999999999996</v>
+        <v>17</v>
       </c>
       <c r="G417" s="4">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H417" s="4">
-        <v>7.47</v>
+        <v>128.81</v>
       </c>
       <c r="I417" s="1" t="s">
         <v>30</v>
@@ -20272,7 +20273,7 @@
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>180654</v>
+        <v>180728</v>
       </c>
       <c r="B422" s="4">
         <v>1</v>
@@ -20281,19 +20282,19 @@
         <v>3</v>
       </c>
       <c r="D422" s="4">
-        <v>332.2</v>
+        <v>409</v>
       </c>
       <c r="E422" s="4">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F422" s="4">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="G422" s="4">
-        <v>0.3</v>
+        <v>12.7</v>
       </c>
       <c r="H422" s="4">
-        <v>84.75</v>
+        <v>128.6</v>
       </c>
       <c r="I422" s="1" t="s">
         <v>30</v>
@@ -20319,7 +20320,7 @@
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>180691</v>
+        <v>180654</v>
       </c>
       <c r="B423" s="4">
         <v>1</v>
@@ -20328,19 +20329,19 @@
         <v>3</v>
       </c>
       <c r="D423" s="4">
-        <v>716</v>
+        <v>332.2</v>
       </c>
       <c r="E423" s="4">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F423" s="4">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G423" s="4">
-        <v>17.3</v>
+        <v>0.3</v>
       </c>
       <c r="H423" s="4">
-        <v>5.41</v>
+        <v>84.75</v>
       </c>
       <c r="I423" s="1" t="s">
         <v>30</v>
@@ -20366,7 +20367,7 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>180728</v>
+        <v>180691</v>
       </c>
       <c r="B424" s="4">
         <v>1</v>
@@ -20375,19 +20376,19 @@
         <v>3</v>
       </c>
       <c r="D424" s="4">
-        <v>409</v>
+        <v>716</v>
       </c>
       <c r="E424" s="4">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="F424" s="4">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="G424" s="4">
-        <v>12.7</v>
+        <v>17.3</v>
       </c>
       <c r="H424" s="4">
-        <v>128.6</v>
+        <v>5.41</v>
       </c>
       <c r="I424" s="1" t="s">
         <v>30</v>
@@ -20695,28 +20696,28 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>182161</v>
+        <v>182207</v>
       </c>
       <c r="B431" s="4">
         <v>1</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D431" s="4">
-        <v>1072.0999999999999</v>
+        <v>539</v>
       </c>
       <c r="E431" s="4">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="F431" s="4">
-        <v>16.8</v>
+        <v>5.6</v>
       </c>
       <c r="G431" s="4">
-        <v>3.2</v>
+        <v>11.2</v>
       </c>
       <c r="H431" s="4">
-        <v>86.87</v>
+        <v>101.42</v>
       </c>
       <c r="I431" s="1" t="s">
         <v>30</v>
@@ -20742,28 +20743,28 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>182207</v>
+        <v>182208</v>
       </c>
       <c r="B432" s="4">
         <v>1</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D432" s="4">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="E432" s="4">
         <v>1817</v>
       </c>
       <c r="F432" s="4">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="G432" s="4">
-        <v>11.2</v>
+        <v>10.1</v>
       </c>
       <c r="H432" s="4">
-        <v>101.42</v>
+        <v>61.25</v>
       </c>
       <c r="I432" s="1" t="s">
         <v>30</v>
@@ -20789,28 +20790,28 @@
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>182208</v>
+        <v>182248</v>
       </c>
       <c r="B433" s="4">
         <v>1</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D433" s="4">
-        <v>513</v>
+        <v>89.2</v>
       </c>
       <c r="E433" s="4">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="F433" s="4">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="G433" s="4">
-        <v>10.1</v>
+        <v>1.2</v>
       </c>
       <c r="H433" s="4">
-        <v>61.25</v>
+        <v>29.94</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>30</v>
@@ -20836,28 +20837,28 @@
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>182248</v>
+        <v>182161</v>
       </c>
       <c r="B434" s="4">
         <v>1</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D434" s="4">
-        <v>89.2</v>
+        <v>1072.0999999999999</v>
       </c>
       <c r="E434" s="4">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="F434" s="4">
-        <v>0.2</v>
+        <v>16.8</v>
       </c>
       <c r="G434" s="4">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H434" s="4">
-        <v>29.94</v>
+        <v>86.87</v>
       </c>
       <c r="I434" s="1" t="s">
         <v>30</v>
@@ -20930,28 +20931,28 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>182451</v>
+        <v>182570</v>
       </c>
       <c r="B436" s="4">
         <v>1</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D436" s="4">
-        <v>355.6</v>
+        <v>530</v>
       </c>
       <c r="E436" s="4">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="F436" s="4">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="G436" s="4">
-        <v>1.4</v>
+        <v>13.5</v>
       </c>
       <c r="H436" s="4">
-        <v>9.1300000000000008</v>
+        <v>73.819999999999993</v>
       </c>
       <c r="I436" s="1" t="s">
         <v>30</v>
@@ -20969,7 +20970,7 @@
         <v>30</v>
       </c>
       <c r="N436" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O436" s="1" t="s">
         <v>38</v>
@@ -20977,28 +20978,28 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>182491</v>
+        <v>182451</v>
       </c>
       <c r="B437" s="4">
         <v>1</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D437" s="4">
-        <v>410</v>
+        <v>355.6</v>
       </c>
       <c r="E437" s="4">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="F437" s="4">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="G437" s="4">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H437" s="4">
-        <v>63.94</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="I437" s="1" t="s">
         <v>30</v>
@@ -21024,28 +21025,28 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>182498</v>
+        <v>182681</v>
       </c>
       <c r="B438" s="4">
         <v>1</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D438" s="4">
-        <v>145.69999999999999</v>
+        <v>590.1</v>
       </c>
       <c r="E438" s="4">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="F438" s="4">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="G438" s="4">
-        <v>18.3</v>
+        <v>1</v>
       </c>
       <c r="H438" s="4">
-        <v>23.06</v>
+        <v>132.66999999999999</v>
       </c>
       <c r="I438" s="1" t="s">
         <v>30</v>
@@ -21071,28 +21072,28 @@
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>182570</v>
+        <v>182693</v>
       </c>
       <c r="B439" s="4">
         <v>1</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D439" s="4">
-        <v>530</v>
+        <v>821.1</v>
       </c>
       <c r="E439" s="4">
-        <v>1823</v>
+        <v>1830</v>
       </c>
       <c r="F439" s="4">
-        <v>2.7</v>
+        <v>15.3</v>
       </c>
       <c r="G439" s="4">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="H439" s="4">
-        <v>73.819999999999993</v>
+        <v>92.19</v>
       </c>
       <c r="I439" s="1" t="s">
         <v>30</v>
@@ -21110,7 +21111,7 @@
         <v>30</v>
       </c>
       <c r="N439" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O439" s="1" t="s">
         <v>38</v>
@@ -21118,7 +21119,7 @@
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>182681</v>
+        <v>182491</v>
       </c>
       <c r="B440" s="4">
         <v>1</v>
@@ -21127,19 +21128,19 @@
         <v>3</v>
       </c>
       <c r="D440" s="4">
-        <v>590.1</v>
+        <v>410</v>
       </c>
       <c r="E440" s="4">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="F440" s="4">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="G440" s="4">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H440" s="4">
-        <v>132.66999999999999</v>
+        <v>63.94</v>
       </c>
       <c r="I440" s="1" t="s">
         <v>30</v>
@@ -21165,28 +21166,28 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>182693</v>
+        <v>182498</v>
       </c>
       <c r="B441" s="4">
         <v>1</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D441" s="4">
-        <v>821.1</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="E441" s="4">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F441" s="4">
-        <v>15.3</v>
+        <v>0.9</v>
       </c>
       <c r="G441" s="4">
-        <v>13.2</v>
+        <v>18.3</v>
       </c>
       <c r="H441" s="4">
-        <v>92.19</v>
+        <v>23.06</v>
       </c>
       <c r="I441" s="1" t="s">
         <v>30</v>
@@ -21541,28 +21542,28 @@
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>190568</v>
+        <v>190655</v>
       </c>
       <c r="B449" s="4">
         <v>1</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D449" s="4">
-        <v>903</v>
+        <v>545.6</v>
       </c>
       <c r="E449" s="4">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="F449" s="4">
-        <v>2.6</v>
+        <v>12.9</v>
       </c>
       <c r="G449" s="4">
-        <v>18.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H449" s="4">
-        <v>120.8</v>
+        <v>29.78</v>
       </c>
       <c r="I449" s="1" t="s">
         <v>30</v>
@@ -21588,7 +21589,7 @@
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>190655</v>
+        <v>190658</v>
       </c>
       <c r="B450" s="4">
         <v>1</v>
@@ -21597,19 +21598,19 @@
         <v>3</v>
       </c>
       <c r="D450" s="4">
-        <v>545.6</v>
+        <v>473.2</v>
       </c>
       <c r="E450" s="4">
         <v>1907</v>
       </c>
       <c r="F450" s="4">
-        <v>12.9</v>
+        <v>10.6</v>
       </c>
       <c r="G450" s="4">
-        <v>16.100000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="H450" s="4">
-        <v>29.78</v>
+        <v>27.24</v>
       </c>
       <c r="I450" s="1" t="s">
         <v>30</v>
@@ -21635,7 +21636,7 @@
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>190658</v>
+        <v>190670</v>
       </c>
       <c r="B451" s="4">
         <v>1</v>
@@ -21644,19 +21645,19 @@
         <v>3</v>
       </c>
       <c r="D451" s="4">
-        <v>473.2</v>
+        <v>548.9</v>
       </c>
       <c r="E451" s="4">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="F451" s="4">
-        <v>10.6</v>
+        <v>8</v>
       </c>
       <c r="G451" s="4">
-        <v>16.7</v>
+        <v>3.2</v>
       </c>
       <c r="H451" s="4">
-        <v>27.24</v>
+        <v>55.74</v>
       </c>
       <c r="I451" s="1" t="s">
         <v>30</v>
@@ -21682,28 +21683,28 @@
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>190670</v>
+        <v>190694</v>
       </c>
       <c r="B452" s="4">
         <v>1</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D452" s="4">
-        <v>548.9</v>
+        <v>1265.5</v>
       </c>
       <c r="E452" s="4">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="F452" s="4">
-        <v>8</v>
+        <v>18.2</v>
       </c>
       <c r="G452" s="4">
-        <v>3.2</v>
+        <v>14.7</v>
       </c>
       <c r="H452" s="4">
-        <v>55.74</v>
+        <v>100.59</v>
       </c>
       <c r="I452" s="1" t="s">
         <v>30</v>
@@ -21729,28 +21730,28 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>190694</v>
+        <v>190568</v>
       </c>
       <c r="B453" s="4">
         <v>1</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D453" s="4">
-        <v>1265.5</v>
+        <v>903</v>
       </c>
       <c r="E453" s="4">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="F453" s="4">
-        <v>18.2</v>
+        <v>2.6</v>
       </c>
       <c r="G453" s="4">
-        <v>14.7</v>
+        <v>18.8</v>
       </c>
       <c r="H453" s="4">
-        <v>100.59</v>
+        <v>120.8</v>
       </c>
       <c r="I453" s="1" t="s">
         <v>30</v>
@@ -22199,28 +22200,28 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>192062</v>
+        <v>192244</v>
       </c>
       <c r="B463" s="4">
         <v>1</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D463" s="4">
-        <v>512.20000000000005</v>
+        <v>443.5</v>
       </c>
       <c r="E463" s="4">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F463" s="4">
-        <v>14.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G463" s="4">
-        <v>10.1</v>
+        <v>16.8</v>
       </c>
       <c r="H463" s="4">
-        <v>45.61</v>
+        <v>12.61</v>
       </c>
       <c r="I463" s="1" t="s">
         <v>30</v>
@@ -22246,7 +22247,7 @@
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
-        <v>192064</v>
+        <v>192062</v>
       </c>
       <c r="B464" s="4">
         <v>1</v>
@@ -22255,19 +22256,19 @@
         <v>11</v>
       </c>
       <c r="D464" s="4">
-        <v>504.3</v>
+        <v>512.20000000000005</v>
       </c>
       <c r="E464" s="4">
         <v>1920</v>
       </c>
       <c r="F464" s="4">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="G464" s="4">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="H464" s="4">
-        <v>69.459999999999994</v>
+        <v>45.61</v>
       </c>
       <c r="I464" s="1" t="s">
         <v>30</v>
@@ -22293,28 +22294,28 @@
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
-        <v>192133</v>
+        <v>192064</v>
       </c>
       <c r="B465" s="4">
         <v>1</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D465" s="4">
-        <v>552</v>
+        <v>504.3</v>
       </c>
       <c r="E465" s="4">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="F465" s="4">
+        <v>18</v>
+      </c>
+      <c r="G465" s="4">
         <v>11.7</v>
       </c>
-      <c r="G465" s="4">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="H465" s="4">
-        <v>138.56</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="I465" s="1" t="s">
         <v>30</v>
@@ -22340,28 +22341,28 @@
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
-        <v>192244</v>
+        <v>192133</v>
       </c>
       <c r="B466" s="4">
         <v>1</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D466" s="4">
-        <v>443.5</v>
+        <v>552</v>
       </c>
       <c r="E466" s="4">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="F466" s="4">
-        <v>18.100000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="G466" s="4">
-        <v>16.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H466" s="4">
-        <v>12.61</v>
+        <v>138.56</v>
       </c>
       <c r="I466" s="1" t="s">
         <v>30</v>
@@ -22528,28 +22529,28 @@
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
-        <v>192527</v>
+        <v>192619</v>
       </c>
       <c r="B470" s="4">
         <v>1</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D470" s="4">
-        <v>503.9</v>
+        <v>787</v>
       </c>
       <c r="E470" s="4">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F470" s="4">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="G470" s="4">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H470" s="4">
-        <v>62.44</v>
+        <v>141.9</v>
       </c>
       <c r="I470" s="1" t="s">
         <v>30</v>
@@ -22575,7 +22576,7 @@
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
-        <v>192528</v>
+        <v>192527</v>
       </c>
       <c r="B471" s="4">
         <v>1</v>
@@ -22584,19 +22585,19 @@
         <v>3</v>
       </c>
       <c r="D471" s="4">
-        <v>569.5</v>
+        <v>503.9</v>
       </c>
       <c r="E471" s="4">
         <v>1928</v>
       </c>
       <c r="F471" s="4">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="G471" s="4">
-        <v>9.6999999999999993</v>
+        <v>5</v>
       </c>
       <c r="H471" s="4">
-        <v>129.35</v>
+        <v>62.44</v>
       </c>
       <c r="I471" s="1" t="s">
         <v>30</v>
@@ -22622,28 +22623,28 @@
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
-        <v>192532</v>
+        <v>192528</v>
       </c>
       <c r="B472" s="4">
         <v>1</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D472" s="4">
-        <v>175.9</v>
+        <v>569.5</v>
       </c>
       <c r="E472" s="4">
         <v>1928</v>
       </c>
       <c r="F472" s="4">
-        <v>19.2</v>
+        <v>12.4</v>
       </c>
       <c r="G472" s="4">
-        <v>18.100000000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H472" s="4">
-        <v>94.31</v>
+        <v>129.35</v>
       </c>
       <c r="I472" s="1" t="s">
         <v>30</v>
@@ -22669,28 +22670,28 @@
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
-        <v>192533</v>
+        <v>192532</v>
       </c>
       <c r="B473" s="4">
         <v>1</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D473" s="4">
-        <v>403.2</v>
+        <v>175.9</v>
       </c>
       <c r="E473" s="4">
         <v>1928</v>
       </c>
       <c r="F473" s="4">
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="G473" s="4">
-        <v>17.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H473" s="4">
-        <v>5.07</v>
+        <v>94.31</v>
       </c>
       <c r="I473" s="1" t="s">
         <v>30</v>
@@ -22716,7 +22717,7 @@
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
-        <v>192534</v>
+        <v>192533</v>
       </c>
       <c r="B474" s="4">
         <v>1</v>
@@ -22725,19 +22726,19 @@
         <v>3</v>
       </c>
       <c r="D474" s="4">
-        <v>554.9</v>
+        <v>403.2</v>
       </c>
       <c r="E474" s="4">
         <v>1928</v>
       </c>
       <c r="F474" s="4">
-        <v>13.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G474" s="4">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H474" s="4">
-        <v>78.44</v>
+        <v>5.07</v>
       </c>
       <c r="I474" s="1" t="s">
         <v>30</v>
@@ -22763,7 +22764,7 @@
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
-        <v>192542</v>
+        <v>192534</v>
       </c>
       <c r="B475" s="4">
         <v>1</v>
@@ -22772,19 +22773,19 @@
         <v>3</v>
       </c>
       <c r="D475" s="4">
-        <v>316.2</v>
+        <v>554.9</v>
       </c>
       <c r="E475" s="4">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F475" s="4">
-        <v>18.899999999999999</v>
+        <v>13.3</v>
       </c>
       <c r="G475" s="4">
-        <v>3.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H475" s="4">
-        <v>72.510000000000005</v>
+        <v>78.44</v>
       </c>
       <c r="I475" s="1" t="s">
         <v>30</v>
@@ -22810,7 +22811,7 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
-        <v>192543</v>
+        <v>192542</v>
       </c>
       <c r="B476" s="4">
         <v>1</v>
@@ -22819,19 +22820,19 @@
         <v>3</v>
       </c>
       <c r="D476" s="4">
-        <v>445.5</v>
+        <v>316.2</v>
       </c>
       <c r="E476" s="4">
         <v>1929</v>
       </c>
       <c r="F476" s="4">
-        <v>14.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G476" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="H476" s="4">
-        <v>41.58</v>
+        <v>72.510000000000005</v>
       </c>
       <c r="I476" s="1" t="s">
         <v>30</v>
@@ -22857,7 +22858,7 @@
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
-        <v>192544</v>
+        <v>192543</v>
       </c>
       <c r="B477" s="4">
         <v>1</v>
@@ -22866,19 +22867,19 @@
         <v>3</v>
       </c>
       <c r="D477" s="4">
-        <v>341.8</v>
+        <v>445.5</v>
       </c>
       <c r="E477" s="4">
         <v>1929</v>
       </c>
       <c r="F477" s="4">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="G477" s="4">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H477" s="4">
-        <v>71.78</v>
+        <v>41.58</v>
       </c>
       <c r="I477" s="1" t="s">
         <v>30</v>
@@ -22904,7 +22905,7 @@
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
-        <v>192546</v>
+        <v>192544</v>
       </c>
       <c r="B478" s="4">
         <v>1</v>
@@ -22913,19 +22914,19 @@
         <v>3</v>
       </c>
       <c r="D478" s="4">
-        <v>533.5</v>
+        <v>341.8</v>
       </c>
       <c r="E478" s="4">
         <v>1929</v>
       </c>
       <c r="F478" s="4">
-        <v>17.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="G478" s="4">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H478" s="4">
-        <v>67.849999999999994</v>
+        <v>71.78</v>
       </c>
       <c r="I478" s="1" t="s">
         <v>30</v>
@@ -22951,7 +22952,7 @@
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
-        <v>192548</v>
+        <v>192546</v>
       </c>
       <c r="B479" s="4">
         <v>1</v>
@@ -22960,19 +22961,19 @@
         <v>3</v>
       </c>
       <c r="D479" s="4">
-        <v>467</v>
+        <v>533.5</v>
       </c>
       <c r="E479" s="4">
         <v>1929</v>
       </c>
       <c r="F479" s="4">
-        <v>15.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G479" s="4">
-        <v>11.3</v>
+        <v>7.3</v>
       </c>
       <c r="H479" s="4">
-        <v>78.209999999999994</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="I479" s="1" t="s">
         <v>30</v>
@@ -22998,28 +22999,28 @@
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
-        <v>192560</v>
+        <v>192548</v>
       </c>
       <c r="B480" s="4">
         <v>1</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D480" s="4">
-        <v>933.1</v>
+        <v>467</v>
       </c>
       <c r="E480" s="4">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F480" s="4">
-        <v>12.9</v>
+        <v>15.3</v>
       </c>
       <c r="G480" s="4">
-        <v>19.5</v>
+        <v>11.3</v>
       </c>
       <c r="H480" s="4">
-        <v>97.99</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="I480" s="1" t="s">
         <v>30</v>
@@ -23045,28 +23046,28 @@
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
-        <v>192570</v>
+        <v>192674</v>
       </c>
       <c r="B481" s="4">
         <v>1</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D481" s="4">
-        <v>468.2</v>
+        <v>467</v>
       </c>
       <c r="E481" s="4">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F481" s="4">
-        <v>16.399999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G481" s="4">
-        <v>16.3</v>
+        <v>2.8</v>
       </c>
       <c r="H481" s="4">
-        <v>101.48</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I481" s="1" t="s">
         <v>30</v>
@@ -23092,28 +23093,28 @@
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
-        <v>192619</v>
+        <v>192560</v>
       </c>
       <c r="B482" s="4">
         <v>1</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D482" s="4">
-        <v>787</v>
+        <v>933.1</v>
       </c>
       <c r="E482" s="4">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="F482" s="4">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="G482" s="4">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="H482" s="4">
-        <v>141.9</v>
+        <v>97.99</v>
       </c>
       <c r="I482" s="1" t="s">
         <v>30</v>
@@ -23139,28 +23140,28 @@
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
-        <v>192674</v>
+        <v>192570</v>
       </c>
       <c r="B483" s="4">
         <v>1</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D483" s="4">
-        <v>467</v>
+        <v>468.2</v>
       </c>
       <c r="E483" s="4">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="F483" s="4">
-        <v>9.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G483" s="4">
-        <v>2.8</v>
+        <v>16.3</v>
       </c>
       <c r="H483" s="4">
-        <v>2.4500000000000002</v>
+        <v>101.48</v>
       </c>
       <c r="I483" s="1" t="s">
         <v>30</v>
@@ -23374,7 +23375,7 @@
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
-        <v>200547</v>
+        <v>200613</v>
       </c>
       <c r="B488" s="4">
         <v>1</v>
@@ -23383,19 +23384,19 @@
         <v>3</v>
       </c>
       <c r="D488" s="4">
-        <v>654</v>
+        <v>851.6</v>
       </c>
       <c r="E488" s="4">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F488" s="4">
-        <v>2.6</v>
+        <v>10.1</v>
       </c>
       <c r="G488" s="4">
-        <v>1.1000000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="H488" s="4">
-        <v>119.95</v>
+        <v>55.78</v>
       </c>
       <c r="I488" s="1" t="s">
         <v>30</v>
@@ -23421,7 +23422,7 @@
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
-        <v>200551</v>
+        <v>200547</v>
       </c>
       <c r="B489" s="4">
         <v>1</v>
@@ -23430,19 +23431,19 @@
         <v>3</v>
       </c>
       <c r="D489" s="4">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="E489" s="4">
         <v>2005</v>
       </c>
       <c r="F489" s="4">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G489" s="4">
-        <v>5.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H489" s="4">
-        <v>92.07</v>
+        <v>119.95</v>
       </c>
       <c r="I489" s="1" t="s">
         <v>30</v>
@@ -23468,7 +23469,7 @@
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
-        <v>200553</v>
+        <v>200551</v>
       </c>
       <c r="B490" s="4">
         <v>1</v>
@@ -23477,19 +23478,19 @@
         <v>3</v>
       </c>
       <c r="D490" s="4">
-        <v>558.1</v>
+        <v>576</v>
       </c>
       <c r="E490" s="4">
         <v>2005</v>
       </c>
       <c r="F490" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G490" s="4">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="H490" s="4">
-        <v>95.09</v>
+        <v>92.07</v>
       </c>
       <c r="I490" s="1" t="s">
         <v>30</v>
@@ -23515,28 +23516,28 @@
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
-        <v>200577</v>
+        <v>200553</v>
       </c>
       <c r="B491" s="4">
         <v>1</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D491" s="4">
-        <v>535.20000000000005</v>
+        <v>558.1</v>
       </c>
       <c r="E491" s="4">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F491" s="4">
-        <v>8.8000000000000007</v>
+        <v>1.2</v>
       </c>
       <c r="G491" s="4">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="H491" s="4">
-        <v>13.48</v>
+        <v>95.09</v>
       </c>
       <c r="I491" s="1" t="s">
         <v>30</v>
@@ -23562,7 +23563,7 @@
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
-        <v>200586</v>
+        <v>200577</v>
       </c>
       <c r="B492" s="4">
         <v>1</v>
@@ -23571,19 +23572,19 @@
         <v>15</v>
       </c>
       <c r="D492" s="4">
-        <v>437.2</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="E492" s="4">
         <v>2007</v>
       </c>
       <c r="F492" s="4">
-        <v>2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G492" s="4">
-        <v>13.9</v>
+        <v>9.6</v>
       </c>
       <c r="H492" s="4">
-        <v>112.88</v>
+        <v>13.48</v>
       </c>
       <c r="I492" s="1" t="s">
         <v>30</v>
@@ -23609,28 +23610,28 @@
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
-        <v>200613</v>
+        <v>200586</v>
       </c>
       <c r="B493" s="4">
         <v>1</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D493" s="4">
-        <v>851.6</v>
+        <v>437.2</v>
       </c>
       <c r="E493" s="4">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F493" s="4">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="G493" s="4">
-        <v>16.2</v>
+        <v>13.9</v>
       </c>
       <c r="H493" s="4">
-        <v>55.78</v>
+        <v>112.88</v>
       </c>
       <c r="I493" s="1" t="s">
         <v>30</v>
@@ -24220,28 +24221,28 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
-        <v>202050</v>
+        <v>202201</v>
       </c>
       <c r="B506" s="4">
         <v>1</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D506" s="4">
-        <v>480.5</v>
+        <v>131</v>
       </c>
       <c r="E506" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F506" s="4">
-        <v>9.1999999999999993</v>
+        <v>3.2</v>
       </c>
       <c r="G506" s="4">
-        <v>14.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H506" s="4">
-        <v>17.25</v>
+        <v>14.07</v>
       </c>
       <c r="I506" s="1" t="s">
         <v>30</v>
@@ -24267,28 +24268,28 @@
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
-        <v>202072</v>
+        <v>202203</v>
       </c>
       <c r="B507" s="4">
         <v>1</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D507" s="4">
-        <v>710.1</v>
+        <v>479.9</v>
       </c>
       <c r="E507" s="4">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F507" s="4">
-        <v>2.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G507" s="4">
-        <v>10.8</v>
+        <v>1.4</v>
       </c>
       <c r="H507" s="4">
-        <v>147.37</v>
+        <v>3.04</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>30</v>
@@ -24314,7 +24315,7 @@
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
-        <v>202118</v>
+        <v>202212</v>
       </c>
       <c r="B508" s="4">
         <v>1</v>
@@ -24323,19 +24324,19 @@
         <v>10</v>
       </c>
       <c r="D508" s="4">
-        <v>698.2</v>
+        <v>598.70000000000005</v>
       </c>
       <c r="E508" s="4">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="F508" s="4">
-        <v>12.8</v>
+        <v>4.3</v>
       </c>
       <c r="G508" s="4">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="H508" s="4">
-        <v>96.87</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="I508" s="1" t="s">
         <v>30</v>
@@ -24361,28 +24362,28 @@
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
-        <v>202201</v>
+        <v>202215</v>
       </c>
       <c r="B509" s="4">
         <v>1</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D509" s="4">
-        <v>131</v>
+        <v>549.9</v>
       </c>
       <c r="E509" s="4">
         <v>2017</v>
       </c>
       <c r="F509" s="4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="G509" s="4">
-        <v>1.1000000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="H509" s="4">
-        <v>14.07</v>
+        <v>81.790000000000006</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>30</v>
@@ -24408,28 +24409,28 @@
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
-        <v>202203</v>
+        <v>202050</v>
       </c>
       <c r="B510" s="4">
         <v>1</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D510" s="4">
-        <v>479.9</v>
+        <v>480.5</v>
       </c>
       <c r="E510" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F510" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="G510" s="4">
-        <v>1.4</v>
+        <v>14.5</v>
       </c>
       <c r="H510" s="4">
-        <v>3.04</v>
+        <v>17.25</v>
       </c>
       <c r="I510" s="1" t="s">
         <v>30</v>
@@ -24455,28 +24456,28 @@
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
-        <v>202212</v>
+        <v>202072</v>
       </c>
       <c r="B511" s="4">
         <v>1</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D511" s="4">
-        <v>598.70000000000005</v>
+        <v>710.1</v>
       </c>
       <c r="E511" s="4">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F511" s="4">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="G511" s="4">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="H511" s="4">
-        <v>34.590000000000003</v>
+        <v>147.37</v>
       </c>
       <c r="I511" s="1" t="s">
         <v>30</v>
@@ -24502,28 +24503,28 @@
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
-        <v>202215</v>
+        <v>202283</v>
       </c>
       <c r="B512" s="4">
         <v>1</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D512" s="4">
-        <v>549.9</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="E512" s="4">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F512" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G512" s="4">
-        <v>11.7</v>
+        <v>2.9</v>
       </c>
       <c r="H512" s="4">
-        <v>81.790000000000006</v>
+        <v>77.34</v>
       </c>
       <c r="I512" s="1" t="s">
         <v>30</v>
@@ -24549,28 +24550,28 @@
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
-        <v>202283</v>
+        <v>202336</v>
       </c>
       <c r="B513" s="4">
         <v>1</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D513" s="4">
-        <v>258.10000000000002</v>
+        <v>430</v>
       </c>
       <c r="E513" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F513" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G513" s="4">
-        <v>2.9</v>
+        <v>10.7</v>
       </c>
       <c r="H513" s="4">
-        <v>77.34</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="I513" s="1" t="s">
         <v>30</v>
@@ -24596,28 +24597,28 @@
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
-        <v>202336</v>
+        <v>202118</v>
       </c>
       <c r="B514" s="4">
         <v>1</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D514" s="4">
-        <v>430</v>
+        <v>698.2</v>
       </c>
       <c r="E514" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F514" s="4">
-        <v>3</v>
+        <v>12.8</v>
       </c>
       <c r="G514" s="4">
-        <v>10.7</v>
+        <v>3.5</v>
       </c>
       <c r="H514" s="4">
-        <v>77.069999999999993</v>
+        <v>96.87</v>
       </c>
       <c r="I514" s="1" t="s">
         <v>30</v>
@@ -25206,10 +25207,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O526">
+    <sortState ref="A3:O526">
+      <sortCondition ref="E2:E526"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;RPage &amp;P of &amp;N</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>